--- a/API_Sheet.xlsx
+++ b/API_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RoopaVenkataSaiRamPe\Downloads\testingFramework-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\apiAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -120,22 +120,22 @@
     <t>b</t>
   </si>
   <si>
-    <t>sunt1 aut facere repellat provident occaecati excepturi optio reprehenderit;sunt aut facere repellat provident occaecati excepturi optio reprehenderit;sunt aut facere repellat provident occaecati excepturi optio reprehenderit</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
     <t>d</t>
   </si>
   <si>
-    <t>sunt aut facere repellat provident occaecati excepturi optio reprehenderit</t>
-  </si>
-  <si>
     <t>Title;a</t>
   </si>
   <si>
-    <t>sunt aut facere repellat provident occaecati excepturi optio reprehenderit;sunt aut facere repellat provident occaecati excepturi optio reprehenderit1</t>
+    <t>sunt aut facere repellat provident occaecati excepturi optio reprehenderit;sunt aut facere repellat provident occaecati excepturi optio reprehenderit;sunt aut facere repellat provident occaecati excepturi optio reprehenderit</t>
+  </si>
+  <si>
+    <t>sunt aut facere repellat provident occaecati excepturi optio reprehenderit;sunt aut facere repellat provident occaecati excepturi optio reprehenderit</t>
+  </si>
+  <si>
+    <t>sunt aut facere repellat provident occaecati excepturi optio reprehenderit1</t>
   </si>
 </sst>
 </file>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -592,10 +592,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -618,7 +618,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -719,7 +719,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>

--- a/API_Sheet.xlsx
+++ b/API_Sheet.xlsx
@@ -1,38 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\apiAutomation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView windowWidth="22188" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="TC_Master" sheetId="1" r:id="rId1"/>
     <sheet name="Mapping" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>TC_ID</t>
   </si>
   <si>
+    <t>ToBeExecuted</t>
+  </si>
+  <si>
+    <t>REQUEST_TYPE</t>
+  </si>
+  <si>
+    <t>REQUEST_DATA_ELEMENTS</t>
+  </si>
+  <si>
+    <t>REQUEST_DATA_ELEMENTS_VALUES</t>
+  </si>
+  <si>
     <t>API_NAME</t>
   </si>
   <si>
+    <t>END_POINT</t>
+  </si>
+  <si>
     <t>DATA_ELEMENTS</t>
   </si>
   <si>
@@ -42,119 +47,146 @@
     <t>TC_001</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>PostsGetAPi</t>
+  </si>
+  <si>
+    <t>https://jsonplaceholder.typicode.com/posts</t>
+  </si>
+  <si>
+    <t>ID;UserID;Title</t>
+  </si>
+  <si>
+    <t>10;1;optio molestias id quia eum==</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>CommentsGetApi</t>
+  </si>
+  <si>
+    <t>https://jsonplaceholder.typicode.com/posts/1/comments</t>
+  </si>
+  <si>
+    <t>Name;Email;postId</t>
+  </si>
+  <si>
+    <t>alias odio sit;Lew@alysha.tv;2</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>USERID;ID;TITLE</t>
+  </si>
+  <si>
+    <t>1000;102;API Test Automation</t>
+  </si>
+  <si>
+    <t>CommentsPostApi</t>
+  </si>
+  <si>
+    <t>CommentsID;CommentsUserID;CommentsTitle</t>
+  </si>
+  <si>
+    <t>101;1000;API Test Automation</t>
+  </si>
+  <si>
     <t>XPATH</t>
   </si>
   <si>
-    <t>REQUEST_TYPE</t>
-  </si>
-  <si>
-    <t>END_POINT</t>
-  </si>
-  <si>
-    <t>ToBeExecuted</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>Get</t>
-  </si>
-  <si>
-    <t>https://jsonplaceholder.typicode.com/posts</t>
-  </si>
-  <si>
-    <t>TC_002</t>
-  </si>
-  <si>
-    <t>POST1</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>https://jsonplaceholder.typicode.com/posts/1/comments</t>
-  </si>
-  <si>
-    <t>TC_003</t>
-  </si>
-  <si>
-    <t>COMMENTS</t>
-  </si>
-  <si>
-    <t>TC_004</t>
-  </si>
-  <si>
-    <t>COMMENT1</t>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>$.[9].title</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>$.[9].id</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>$.[9].userId</t>
+  </si>
+  <si>
+    <t>Title2</t>
+  </si>
+  <si>
+    <t>$.[1].title</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>$.[3].name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>$.[3].email</t>
+  </si>
+  <si>
+    <t>postId</t>
+  </si>
+  <si>
+    <t>$.[3].postId</t>
+  </si>
+  <si>
+    <t>CommentsID</t>
+  </si>
+  <si>
+    <t>$.id</t>
+  </si>
+  <si>
+    <t>CommentsTitle</t>
+  </si>
+  <si>
+    <t>$.title</t>
+  </si>
+  <si>
+    <t>CommentsUserID</t>
   </si>
   <si>
     <t>$.userId</t>
-  </si>
-  <si>
-    <t>$.title</t>
-  </si>
-  <si>
-    <t>$.id</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>UserID</t>
-  </si>
-  <si>
-    <t>Title;a;b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Title;a</t>
-  </si>
-  <si>
-    <t>sunt aut facere repellat provident occaecati excepturi optio reprehenderit;sunt aut facere repellat provident occaecati excepturi optio reprehenderit;sunt aut facere repellat provident occaecati excepturi optio reprehenderit</t>
-  </si>
-  <si>
-    <t>sunt aut facere repellat provident occaecati excepturi optio reprehenderit;sunt aut facere repellat provident occaecati excepturi optio reprehenderit</t>
-  </si>
-  <si>
-    <t>sunt aut facere repellat provident occaecati excepturi optio reprehenderit1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,11 +194,154 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,8 +354,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -190,61 +551,358 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF33C0C7"/>
+      <color rgb="0033C0C7"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -293,7 +951,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -328,7 +986,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -502,238 +1160,264 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="13.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="26.4444444444444" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5555555555556" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="37.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="18.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="135.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
+      <c r="I4" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://jsonplaceholder.typicode.com/posts"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://jsonplaceholder.typicode.com/posts/1/comments"/>
+    <hyperlink ref="G4" r:id="rId1" display="https://jsonplaceholder.typicode.com/posts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/API_Sheet.xlsx
+++ b/API_Sheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>TC_ID</t>
   </si>
@@ -23,6 +23,9 @@
     <t>ToBeExecuted</t>
   </si>
   <si>
+    <t>SERVICE_TYPE</t>
+  </si>
+  <si>
     <t>REQUEST_TYPE</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
     <t>Y</t>
   </si>
   <si>
+    <t>JSON</t>
+  </si>
+  <si>
     <t>GET</t>
   </si>
   <si>
@@ -62,7 +68,7 @@
     <t>ID;UserID;Title</t>
   </si>
   <si>
-    <t>10;1;optio molestias id quia eum==</t>
+    <t>10;1;optio molestias id quia eum</t>
   </si>
   <si>
     <t>TC_003</t>
@@ -77,7 +83,7 @@
     <t>Name;Email;postId</t>
   </si>
   <si>
-    <t>alias odio sit;Lew@alysha.tv;2</t>
+    <t>alias odio sit;Lew@alysha.tv;1</t>
   </si>
   <si>
     <t>TC_004</t>
@@ -98,7 +104,25 @@
     <t>CommentsID;CommentsUserID;CommentsTitle</t>
   </si>
   <si>
-    <t>101;1000;API Test Automation</t>
+    <t>101;rgt;Automation Engineer</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>SOAP</t>
+  </si>
+  <si>
+    <t>SoapResponseTest</t>
+  </si>
+  <si>
+    <t>https://www.crcind.com/csp/samples/SOAP.Demo.cls?soap_method=FindPerson&amp;id=1</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Washington</t>
   </si>
   <si>
     <t>XPATH</t>
@@ -162,6 +186,9 @@
   </si>
   <si>
     <t>$.userId</t>
+  </si>
+  <si>
+    <t>//FindPersonResult/Office/City</t>
   </si>
 </sst>
 </file>
@@ -808,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -819,6 +846,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1166,25 +1194,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="13.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="26.4444444444444" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5555555555556" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="37.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="18.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="135.777777777778" customWidth="1"/>
+    <col min="2" max="3" width="12.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="26.4444444444444" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5555555555556" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="37.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="18.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="135.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1212,88 +1240,126 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>27</v>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B4">
+  <conditionalFormatting sqref="B2:C5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
@@ -1302,9 +1368,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://jsonplaceholder.typicode.com/posts"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://jsonplaceholder.typicode.com/posts/1/comments"/>
-    <hyperlink ref="G4" r:id="rId1" display="https://jsonplaceholder.typicode.com/posts"/>
+    <hyperlink ref="H2" r:id="rId1" display="https://jsonplaceholder.typicode.com/posts"/>
+    <hyperlink ref="H3" r:id="rId2" display="https://jsonplaceholder.typicode.com/posts/1/comments"/>
+    <hyperlink ref="H4" r:id="rId1" display="https://jsonplaceholder.typicode.com/posts"/>
+    <hyperlink ref="H5" r:id="rId3" display="https://www.crcind.com/csp/samples/SOAP.Demo.cls?soap_method=FindPerson&amp;id=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -1315,105 +1382,113 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.8888888888889" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/API_Sheet.xlsx
+++ b/API_Sheet.xlsx
@@ -104,7 +104,7 @@
     <t>CommentsID;CommentsUserID;CommentsTitle</t>
   </si>
   <si>
-    <t>101;rgt;Automation Engineer</t>
+    <t>101;hari;API Automation Engineer</t>
   </si>
   <si>
     <t>TC_005</t>
@@ -201,7 +201,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +220,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -368,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,12 +413,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,156 +679,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1197,7 +1182,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1213,148 +1198,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1404,34 +1389,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
